--- a/7RMartSuperMarket/src/main/resources/TestData.xlsx
+++ b/7RMartSuperMarket/src/main/resources/TestData.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="ManageCategoryPage" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginPage" sheetId="2" r:id="rId1"/>
+    <sheet name="AdminUsersPage" sheetId="4" r:id="rId2"/>
+    <sheet name="AddNewsPage" sheetId="5" r:id="rId3"/>
+    <sheet name="ManageCategoryPage" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="4">
-  <si>
-    <t>Cooking Essentials</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>admin</t>
   </si>
@@ -27,6 +26,24 @@
   </si>
   <si>
     <t>admine</t>
+  </si>
+  <si>
+    <t>Gopikrishnan</t>
+  </si>
+  <si>
+    <t>Gopikrishnan1</t>
+  </si>
+  <si>
+    <t>svswdvesfv</t>
+  </si>
+  <si>
+    <t>Its rainy season</t>
+  </si>
+  <si>
+    <t>dfsdfsdf561sdv</t>
+  </si>
+  <si>
+    <t>CookingEssentials</t>
   </si>
 </sst>
 </file>
@@ -368,29 +385,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B5:B6"/>
     </sheetView>
   </sheetViews>
@@ -398,34 +395,113 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
